--- a/Code/Results/Cases/Case_1_208/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_208/res_line/loading_percent.xlsx
@@ -420,43 +420,22 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>15.70147892709818</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.89146570671846</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>79.18329445036427</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.506330476204404</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
@@ -467,115 +446,598 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>14.77592733642979</v>
+      </c>
+      <c r="E3">
+        <v>15.83773364141648</v>
+      </c>
+      <c r="F3">
+        <v>74.47837908689893</v>
+      </c>
+      <c r="G3">
+        <v>3.52980578537845</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>14.1941479176325</v>
+      </c>
+      <c r="E4">
+        <v>15.17352420103683</v>
+      </c>
+      <c r="F4">
+        <v>71.51645782996005</v>
+      </c>
+      <c r="G4">
+        <v>3.544608187503419</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>13.95385669039769</v>
+      </c>
+      <c r="E5">
+        <v>14.89868000058556</v>
+      </c>
+      <c r="F5">
+        <v>70.29197460439829</v>
+      </c>
+      <c r="G5">
+        <v>3.550743460503485</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>13.9137689966189</v>
+      </c>
+      <c r="E6">
+        <v>14.85279612538556</v>
+      </c>
+      <c r="F6">
+        <v>70.08762687775078</v>
+      </c>
+      <c r="G6">
+        <v>3.551768602166317</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>14.19091998682362</v>
+      </c>
+      <c r="E7">
+        <v>15.16983419960333</v>
+      </c>
+      <c r="F7">
+        <v>71.50001336761342</v>
+      </c>
+      <c r="G7">
+        <v>3.544690505228153</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>15.3852374081606</v>
+      </c>
+      <c r="E8">
+        <v>16.53178379697801</v>
+      </c>
+      <c r="F8">
+        <v>77.57665559929744</v>
+      </c>
+      <c r="G8">
+        <v>3.514347576879106</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>17.61545575248098</v>
+      </c>
+      <c r="E9">
+        <v>19.31299120419673</v>
+      </c>
+      <c r="F9">
+        <v>88.88891582150644</v>
+      </c>
+      <c r="G9">
+        <v>3.457655171938651</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>19.18354377081927</v>
+      </c>
+      <c r="E10">
+        <v>21.27254021223269</v>
+      </c>
+      <c r="F10">
+        <v>96.82025173967138</v>
+      </c>
+      <c r="G10">
+        <v>3.417293879054475</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>19.88225413125701</v>
+      </c>
+      <c r="E11">
+        <v>22.13417988788841</v>
+      </c>
+      <c r="F11">
+        <v>100.375551308333</v>
+      </c>
+      <c r="G11">
+        <v>3.399104769743597</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>20.14485752328794</v>
+      </c>
+      <c r="E12">
+        <v>22.45650474274563</v>
+      </c>
+      <c r="F12">
+        <v>101.7602969162273</v>
+      </c>
+      <c r="G12">
+        <v>3.392231354933785</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>20.08838689763399</v>
+      </c>
+      <c r="E13">
+        <v>22.38725686955731</v>
+      </c>
+      <c r="F13">
+        <v>101.4626697910352</v>
+      </c>
+      <c r="G13">
+        <v>3.393711204724659</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="D14">
+        <v>19.90389753590321</v>
+      </c>
+      <c r="E14">
+        <v>22.16077511795521</v>
+      </c>
+      <c r="F14">
+        <v>100.489748176051</v>
+      </c>
+      <c r="G14">
+        <v>3.398539064538787</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="D15">
+        <v>19.79063869454602</v>
+      </c>
+      <c r="E15">
+        <v>22.02154308477916</v>
+      </c>
+      <c r="F15">
+        <v>99.89202405618664</v>
+      </c>
+      <c r="G15">
+        <v>3.401497817247893</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>19.13759617107819</v>
+      </c>
+      <c r="E16">
+        <v>21.2156576016227</v>
+      </c>
+      <c r="F16">
+        <v>96.58808562967822</v>
+      </c>
+      <c r="G16">
+        <v>3.418485183736867</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>18.73329891393027</v>
+      </c>
+      <c r="E17">
+        <v>20.71386519476761</v>
+      </c>
+      <c r="F17">
+        <v>94.54463780054184</v>
+      </c>
+      <c r="G17">
+        <v>3.428943406072336</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>18.49937118066542</v>
+      </c>
+      <c r="E18">
+        <v>20.42242412896501</v>
+      </c>
+      <c r="F18">
+        <v>93.36179555458557</v>
+      </c>
+      <c r="G18">
+        <v>3.434975521537659</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>18.41992635411235</v>
+      </c>
+      <c r="E19">
+        <v>20.32325310440067</v>
+      </c>
+      <c r="F19">
+        <v>92.96000312887543</v>
+      </c>
+      <c r="G19">
+        <v>3.437021072763231</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>18.77647986625618</v>
+      </c>
+      <c r="E20">
+        <v>20.76757185299081</v>
+      </c>
+      <c r="F20">
+        <v>94.7629397007903</v>
+      </c>
+      <c r="G20">
+        <v>3.427828439454609</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21">
+        <v>19.95813913105953</v>
+      </c>
+      <c r="E21">
+        <v>22.22740299724487</v>
+      </c>
+      <c r="F21">
+        <v>100.775888341292</v>
+      </c>
+      <c r="G21">
+        <v>3.397120702454541</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22">
+        <v>20.74910251413701</v>
+      </c>
+      <c r="E22">
+        <v>23.15858771632797</v>
+      </c>
+      <c r="F22">
+        <v>104.7815679004808</v>
+      </c>
+      <c r="G22">
+        <v>3.377129621580122</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23">
+        <v>20.31388974404377</v>
+      </c>
+      <c r="E23">
+        <v>22.66357533172211</v>
+      </c>
+      <c r="F23">
+        <v>102.650693722731</v>
+      </c>
+      <c r="G23">
+        <v>3.387795830744151</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24">
+        <v>18.75696241281047</v>
+      </c>
+      <c r="E24">
+        <v>20.74330029734454</v>
+      </c>
+      <c r="F24">
+        <v>94.66427048517193</v>
+      </c>
+      <c r="G24">
+        <v>3.428332454230791</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="D25">
+        <v>17.02453591620949</v>
+      </c>
+      <c r="E25">
+        <v>18.5630335894455</v>
+      </c>
+      <c r="F25">
+        <v>85.89552464546682</v>
+      </c>
+      <c r="G25">
+        <v>3.472732019469896</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_208/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_208/res_line/loading_percent.xlsx
@@ -420,22 +420,43 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>15.70147892709818</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.89146570671846</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>79.18329445036427</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.506330476204404</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
@@ -446,598 +467,115 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>14.77592733642979</v>
-      </c>
-      <c r="E3">
-        <v>15.83773364141648</v>
-      </c>
-      <c r="F3">
-        <v>74.47837908689893</v>
-      </c>
-      <c r="G3">
-        <v>3.52980578537845</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>14.1941479176325</v>
-      </c>
-      <c r="E4">
-        <v>15.17352420103683</v>
-      </c>
-      <c r="F4">
-        <v>71.51645782996005</v>
-      </c>
-      <c r="G4">
-        <v>3.544608187503419</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>13.95385669039769</v>
-      </c>
-      <c r="E5">
-        <v>14.89868000058556</v>
-      </c>
-      <c r="F5">
-        <v>70.29197460439829</v>
-      </c>
-      <c r="G5">
-        <v>3.550743460503485</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>13.9137689966189</v>
-      </c>
-      <c r="E6">
-        <v>14.85279612538556</v>
-      </c>
-      <c r="F6">
-        <v>70.08762687775078</v>
-      </c>
-      <c r="G6">
-        <v>3.551768602166317</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>14.19091998682362</v>
-      </c>
-      <c r="E7">
-        <v>15.16983419960333</v>
-      </c>
-      <c r="F7">
-        <v>71.50001336761342</v>
-      </c>
-      <c r="G7">
-        <v>3.544690505228153</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>15.3852374081606</v>
-      </c>
-      <c r="E8">
-        <v>16.53178379697801</v>
-      </c>
-      <c r="F8">
-        <v>77.57665559929744</v>
-      </c>
-      <c r="G8">
-        <v>3.514347576879106</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>17.61545575248098</v>
-      </c>
-      <c r="E9">
-        <v>19.31299120419673</v>
-      </c>
-      <c r="F9">
-        <v>88.88891582150644</v>
-      </c>
-      <c r="G9">
-        <v>3.457655171938651</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>19.18354377081927</v>
-      </c>
-      <c r="E10">
-        <v>21.27254021223269</v>
-      </c>
-      <c r="F10">
-        <v>96.82025173967138</v>
-      </c>
-      <c r="G10">
-        <v>3.417293879054475</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>19.88225413125701</v>
-      </c>
-      <c r="E11">
-        <v>22.13417988788841</v>
-      </c>
-      <c r="F11">
-        <v>100.375551308333</v>
-      </c>
-      <c r="G11">
-        <v>3.399104769743597</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>20.14485752328794</v>
-      </c>
-      <c r="E12">
-        <v>22.45650474274563</v>
-      </c>
-      <c r="F12">
-        <v>101.7602969162273</v>
-      </c>
-      <c r="G12">
-        <v>3.392231354933785</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D13">
-        <v>20.08838689763399</v>
-      </c>
-      <c r="E13">
-        <v>22.38725686955731</v>
-      </c>
-      <c r="F13">
-        <v>101.4626697910352</v>
-      </c>
-      <c r="G13">
-        <v>3.393711204724659</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D14">
-        <v>19.90389753590321</v>
-      </c>
-      <c r="E14">
-        <v>22.16077511795521</v>
-      </c>
-      <c r="F14">
-        <v>100.489748176051</v>
-      </c>
-      <c r="G14">
-        <v>3.398539064538787</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>19.79063869454602</v>
-      </c>
-      <c r="E15">
-        <v>22.02154308477916</v>
-      </c>
-      <c r="F15">
-        <v>99.89202405618664</v>
-      </c>
-      <c r="G15">
-        <v>3.401497817247893</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>19.13759617107819</v>
-      </c>
-      <c r="E16">
-        <v>21.2156576016227</v>
-      </c>
-      <c r="F16">
-        <v>96.58808562967822</v>
-      </c>
-      <c r="G16">
-        <v>3.418485183736867</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>18.73329891393027</v>
-      </c>
-      <c r="E17">
-        <v>20.71386519476761</v>
-      </c>
-      <c r="F17">
-        <v>94.54463780054184</v>
-      </c>
-      <c r="G17">
-        <v>3.428943406072336</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>18.49937118066542</v>
-      </c>
-      <c r="E18">
-        <v>20.42242412896501</v>
-      </c>
-      <c r="F18">
-        <v>93.36179555458557</v>
-      </c>
-      <c r="G18">
-        <v>3.434975521537659</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>18.41992635411235</v>
-      </c>
-      <c r="E19">
-        <v>20.32325310440067</v>
-      </c>
-      <c r="F19">
-        <v>92.96000312887543</v>
-      </c>
-      <c r="G19">
-        <v>3.437021072763231</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>18.77647986625618</v>
-      </c>
-      <c r="E20">
-        <v>20.76757185299081</v>
-      </c>
-      <c r="F20">
-        <v>94.7629397007903</v>
-      </c>
-      <c r="G20">
-        <v>3.427828439454609</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>19.95813913105953</v>
-      </c>
-      <c r="E21">
-        <v>22.22740299724487</v>
-      </c>
-      <c r="F21">
-        <v>100.775888341292</v>
-      </c>
-      <c r="G21">
-        <v>3.397120702454541</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>20.74910251413701</v>
-      </c>
-      <c r="E22">
-        <v>23.15858771632797</v>
-      </c>
-      <c r="F22">
-        <v>104.7815679004808</v>
-      </c>
-      <c r="G22">
-        <v>3.377129621580122</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>20.31388974404377</v>
-      </c>
-      <c r="E23">
-        <v>22.66357533172211</v>
-      </c>
-      <c r="F23">
-        <v>102.650693722731</v>
-      </c>
-      <c r="G23">
-        <v>3.387795830744151</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>18.75696241281047</v>
-      </c>
-      <c r="E24">
-        <v>20.74330029734454</v>
-      </c>
-      <c r="F24">
-        <v>94.66427048517193</v>
-      </c>
-      <c r="G24">
-        <v>3.428332454230791</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>23</v>
-      </c>
-      <c r="D25">
-        <v>17.02453591620949</v>
-      </c>
-      <c r="E25">
-        <v>18.5630335894455</v>
-      </c>
-      <c r="F25">
-        <v>85.89552464546682</v>
-      </c>
-      <c r="G25">
-        <v>3.472732019469896</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
